--- a/REPORTING_SERVICE/test/resources/prueba.xlsx
+++ b/REPORTING_SERVICE/test/resources/prueba.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Descargas\AT16-SKYNET-feature-AT16-402_Create_Endpoint\REPORTING_SERVICE\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AT16Project\AT16-SKYNET\REPORTING_SERVICE\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0476059E-39DD-48AD-B6B5-F54AAC2FC70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD645FB2-C57F-4FE4-A9F9-AE56678F844C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{E73CAFFE-954F-4B62-8B1B-2559F4839849}"/>
+    <workbookView minimized="1" xWindow="19590" yWindow="1260" windowWidth="8100" windowHeight="13650" xr2:uid="{E73CAFFE-954F-4B62-8B1B-2559F4839849}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,6 +141,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -154,13 +160,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29A4860D-A937-45DB-B56E-E8BA20694B9A}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,7 +1106,7 @@
       <c r="Q10" t="s">
         <v>19</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R10" s="6" t="s">
         <v>19</v>
       </c>
       <c r="S10" t="s">
@@ -1285,7 +1292,7 @@
       <c r="Q13" t="s">
         <v>19</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13" s="6" t="s">
         <v>19</v>
       </c>
       <c r="S13" t="s">
